--- a/qrDecoder/qualifications.xlsx
+++ b/qrDecoder/qualifications.xlsx
@@ -566,7 +566,7 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.109375" customWidth="1" style="13" min="1" max="1"/>
     <col width="19.88671875" customWidth="1" style="13" min="2" max="2"/>
@@ -896,7 +896,7 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="24.6640625" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -1314,7 +1314,6 @@
       <c r="B8" t="n">
         <v>28</v>
       </c>
-      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1527,7 +1526,7 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11" customWidth="1" style="13" min="9" max="9"/>
     <col width="10.6640625" customWidth="1" style="13" min="10" max="10"/>
@@ -2209,7 +2208,7 @@
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="27.6640625" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -2947,7 +2946,7 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13.33203125" customWidth="1" style="13" min="5" max="5"/>
     <col width="42.109375" customWidth="1" style="13" min="16" max="16"/>
@@ -3439,7 +3438,6 @@
       <c r="B9" t="n">
         <v>9</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
         <v>0</v>
       </c>
@@ -3476,7 +3474,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t>0</t>
@@ -3653,7 +3650,7 @@
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="28.109375" customWidth="1" style="13" min="16" max="16"/>
     <col width="16.5546875" customWidth="1" style="13" min="18" max="18"/>
@@ -4460,7 +4457,7 @@
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.5546875" customWidth="1" style="13" min="9" max="9"/>
     <col width="15.5546875" customWidth="1" style="13" min="11" max="11"/>
@@ -4984,7 +4981,6 @@
       <c r="B10" t="n">
         <v>31</v>
       </c>
-      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>0</v>
       </c>
@@ -5141,7 +5137,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="39.88671875" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -5875,7 +5871,7 @@
       <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="17.44140625" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -6558,7 +6554,7 @@
       <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.44140625" customWidth="1" style="13" min="9" max="9"/>
     <col width="18.109375" customWidth="1" style="13" min="10" max="10"/>
@@ -7286,7 +7282,7 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="36.88671875" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -8666,7 +8662,7 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" customWidth="1" style="13" min="9" max="9"/>
     <col width="12" customWidth="1" style="13" min="11" max="11"/>
@@ -9452,7 +9448,7 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="26.5546875" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -10251,7 +10247,7 @@
       <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.6640625" customWidth="1" style="13" min="5" max="6"/>
     <col width="12.88671875" customWidth="1" style="13" min="9" max="9"/>
@@ -10996,7 +10992,7 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.109375" customWidth="1" style="13" min="7" max="7"/>
     <col width="13.5546875" customWidth="1" style="13" min="9" max="9"/>
@@ -11669,7 +11665,7 @@
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="27.88671875" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -12413,7 +12409,7 @@
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="17.6640625" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -13831,7 +13827,7 @@
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="43.109375" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -14559,7 +14555,7 @@
       <selection pane="bottomLeft" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.6640625" customWidth="1" style="13" min="5" max="5"/>
     <col width="11" customWidth="1" style="13" min="6" max="6"/>
@@ -15210,7 +15206,7 @@
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.6640625" customWidth="1" style="13" min="10" max="10"/>
     <col width="28.44140625" customWidth="1" style="13" min="16" max="16"/>
@@ -16448,7 +16444,7 @@
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="34.33203125" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -17141,7 +17137,7 @@
       <selection pane="bottomLeft" activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="9.109375" customWidth="1" style="13" min="7" max="7"/>
     <col width="14.33203125" customWidth="1" style="13" min="11" max="11"/>
@@ -17776,7 +17772,6 @@
       <c r="B12" t="n">
         <v>2</v>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
         <v>0</v>
       </c>
@@ -17937,7 +17932,7 @@
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="21.33203125" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -18718,7 +18713,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="47.33203125" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -19351,7 +19346,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.6640625" customWidth="1" style="13" min="7" max="7"/>
     <col width="11.44140625" customWidth="1" style="13" min="8" max="8"/>
@@ -20775,7 +20770,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="12.5546875" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
     <col width="56.6640625" customWidth="1" style="13" min="16" max="16"/>
@@ -21538,7 +21533,7 @@
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="46" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -22329,7 +22324,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="36.6640625" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -23112,7 +23107,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.44140625" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
     <col width="11.44140625" bestFit="1" customWidth="1" style="13" min="3" max="3"/>
@@ -24028,7 +24023,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.109375" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -24755,7 +24750,7 @@
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="15.33203125" customWidth="1" style="13" min="2" max="2"/>
     <col width="14.5546875" customWidth="1" style="13" min="11" max="11"/>
@@ -25556,7 +25551,7 @@
       <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="13.33203125" customWidth="1" style="13" min="10" max="10"/>
     <col width="12.33203125" customWidth="1" style="13" min="13" max="13"/>
@@ -26616,7 +26611,7 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="9.109375" customWidth="1" style="14" min="2" max="2"/>
     <col width="39.5546875" customWidth="1" style="13" min="3" max="3"/>
@@ -27367,7 +27362,7 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.109375" customWidth="1" style="13" min="10" max="10"/>
     <col width="22.44140625" customWidth="1" style="13" min="16" max="16"/>
@@ -28144,7 +28139,7 @@
       <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="31.88671875" customWidth="1" style="13" min="16" max="16"/>
   </cols>
@@ -28856,7 +28851,7 @@
       <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="11.88671875" bestFit="1" customWidth="1" style="13" min="2" max="2"/>
     <col width="47.6640625" customWidth="1" style="13" min="16" max="16"/>
